--- a/TPFINAL_Craicnet/bin/Debug/Peliculas_Promo.xlsx
+++ b/TPFINAL_Craicnet/bin/Debug/Peliculas_Promo.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Craicnet\TPFINAL_Craicnet\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunocruzfranchi/Documents/Craicnet/TPFINAL_Craicnet/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA004F1B-45F5-46E2-933A-66CFAD626C6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69679D7-CF1F-A046-B345-154F1123D1F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>Ewan McGregor, Natalie Portman, Ian McDiarmid, Samuel L. Jackson, Hayden Christensen, Christopher Lee</t>
+  </si>
+  <si>
+    <t>Star Wars III - Revenge of the Sith</t>
+  </si>
+  <si>
+    <t>Ewan McGregor, Natalie Portman, Ian McDiarmid, Samuel L. Jackson, Hayden Christensen</t>
   </si>
 </sst>
 </file>
@@ -193,16 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -251,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,19 +546,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,29 +580,29 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,8 +613,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">RANDBETWEEN(25,45)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>2006</v>
@@ -626,36 +622,31 @@
         <v>22</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2">
-        <f ca="1">RANDBETWEEN(K2,1000)</f>
-        <v>600</v>
-      </c>
-      <c r="J2">
-        <f ca="1">RANDBETWEEN(I2,10000)</f>
-        <v>7045</v>
-      </c>
-      <c r="K2">
-        <f ca="1">RANDBETWEEN(25,1000)</f>
-        <v>245</v>
-      </c>
-      <c r="L2">
-        <f ca="1">RANDBETWEEN(K2,10000)</f>
-        <v>3725</v>
-      </c>
-      <c r="M2">
+      <c r="I2" s="1">
+        <v>826</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5432</v>
+      </c>
+      <c r="K2" s="1">
+        <v>779</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9937</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.25</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>43455</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,8 +657,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" ca="1" si="0">RANDBETWEEN(25,45)</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>2008</v>
@@ -676,36 +666,31 @@
         <v>25</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I7" ca="1" si="2">RANDBETWEEN(K3,1000)</f>
-        <v>524</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" ca="1" si="3">RANDBETWEEN(I3,10000)</f>
-        <v>5136</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" ca="1" si="4">RANDBETWEEN(25,1000)</f>
-        <v>471</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L7" ca="1" si="5">RANDBETWEEN(K3,10000)</f>
-        <v>1634</v>
-      </c>
-      <c r="M3">
-        <v>0.25</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="I3" s="1">
+        <v>572</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5975</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2221</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N3" s="4">
         <v>43456</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,8 +701,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>2012</v>
@@ -726,36 +710,31 @@
         <v>27</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="2"/>
-        <v>556</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="3"/>
-        <v>3264</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="5"/>
-        <v>861</v>
-      </c>
-      <c r="M4">
+      <c r="I4" s="1">
+        <v>415</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1687</v>
+      </c>
+      <c r="K4" s="1">
+        <v>271</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4628</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.25</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>43457</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +745,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
@@ -776,36 +754,31 @@
         <v>28</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="2"/>
-        <v>195</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="3"/>
-        <v>8627</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="4"/>
-        <v>168</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5450</v>
-      </c>
-      <c r="M5">
-        <v>0.25</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="I5" s="1">
+        <v>382</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8737</v>
+      </c>
+      <c r="K5" s="1">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9123</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +789,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>1999</v>
@@ -826,36 +798,31 @@
         <v>31</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="2"/>
-        <v>950</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="4"/>
-        <v>845</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="5"/>
-        <v>1703</v>
-      </c>
-      <c r="M6">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="I6" s="1">
+        <v>917</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3563</v>
+      </c>
+      <c r="K6" s="1">
+        <v>239</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3232</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="4">
         <v>43459</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +833,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>2002</v>
@@ -876,40 +842,79 @@
         <v>32</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="2"/>
-        <v>998</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="3"/>
-        <v>2843</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="4"/>
-        <v>994</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="5"/>
-        <v>4620</v>
-      </c>
-      <c r="M7">
+      <c r="I7" s="1">
+        <v>521</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9948</v>
+      </c>
+      <c r="K7" s="1">
+        <v>431</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7932</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.25</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>43460</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="6"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>404</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3501</v>
+      </c>
+      <c r="K8" s="1">
+        <v>362</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4535</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>43461</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="6"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
